--- a/Data/Input/PaymentTransactionTypes - UAT.xlsx
+++ b/Data/Input/PaymentTransactionTypes - UAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D3933-2F28-4ABE-916E-1B7B86B75492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40333F80-8E27-40C0-BD20-CA19F9DEE609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28845" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IF(OR(C{0}=LOOKUP(C{0},donotprocess!$A:$A),C{0}=LOOKUP(C{0},'Email Refunds'!$E:$E))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
+  </si>
+  <si>
+    <t>Columns To Remove From Filtration</t>
+  </si>
+  <si>
+    <t>Column1,Authorisation,Processing,Status,Column2,FRAUD Check,Do not process,MR-Email,MR-Fin,Column3,Comments,Refund Date,Column4</t>
+  </si>
+  <si>
+    <t>Column1,Authorisation,Processing,Status,Column2,Column3,Manual refunded Yes/No,refunded by Fraud team?,Return Credit Memo,Column4,Refunded Yes-No,Comment,Refund Date</t>
+  </si>
+  <si>
+    <t>Authorisation,Processing,Status,Column1,Column2,Manual refund,Fraud,Column3,Refund Date</t>
   </si>
 </sst>
 </file>
@@ -511,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +540,7 @@
     <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -550,8 +562,11 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -573,8 +588,11 @@
       <c r="G2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -596,8 +614,11 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -619,8 +640,11 @@
       <c r="G4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -642,8 +666,11 @@
       <c r="G5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -665,8 +692,11 @@
       <c r="G6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -687,6 +717,9 @@
       </c>
       <c r="G7" t="s">
         <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D0C3AA-5529-4D71-AAA7-A99999E9619A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -808,15 +841,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3A7D5D-58F6-4694-9A38-5139D815B897}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -824,7 +860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -832,7 +868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -840,7 +876,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -848,7 +884,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -870,8 +911,11 @@
       <c r="G7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -893,8 +937,11 @@
       <c r="G8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -916,8 +963,11 @@
       <c r="G9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -939,8 +989,11 @@
       <c r="G10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -962,8 +1015,11 @@
       <c r="G11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -984,6 +1040,9 @@
       </c>
       <c r="G12" t="s">
         <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
